--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_PLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_PLapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -304,6 +304,42 @@
   </si>
   <si>
     <t>Thay connector, nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>05/12/2020</t>
+  </si>
+  <si>
+    <t>04/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector, không khởi động được</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nạp lại FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,RTB,NCFW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Không sửa chữa thiết bị</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -821,28 +857,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,13 +881,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1182,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1214,43 +1250,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="106"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="70"/>
@@ -1295,58 +1331,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="100" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1371,24 +1407,24 @@
       <c r="I5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="100"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1397,7 +1433,9 @@
       <c r="B6" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="82" t="s">
+        <v>92</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>44</v>
       </c>
@@ -1440,7 +1478,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="100" t="s">
+      <c r="V6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1451,27 +1489,53 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="56"/>
+      <c r="B7" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="51">
+        <v>867717030421672</v>
+      </c>
       <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>94</v>
+      </c>
       <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="52"/>
+      <c r="L7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>95</v>
+      </c>
       <c r="N7" s="54"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="50"/>
+      <c r="O7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>97</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="101"/>
+      <c r="V7" s="94"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1500,7 +1564,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="101"/>
+      <c r="V8" s="94"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1529,7 +1593,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="101"/>
+      <c r="V9" s="94"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1558,7 +1622,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="101"/>
+      <c r="V10" s="94"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1587,7 +1651,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="101"/>
+      <c r="V11" s="94"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1616,7 +1680,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="100" t="s">
+      <c r="V12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1647,7 +1711,7 @@
       <c r="S13" s="91"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="101"/>
+      <c r="V13" s="94"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1663,7 +1727,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="68"/>
-      <c r="I14" s="109"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="91"/>
       <c r="K14" s="87"/>
       <c r="L14" s="55"/>
@@ -1676,7 +1740,7 @@
       <c r="S14" s="91"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="101"/>
+      <c r="V14" s="94"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1705,7 +1769,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="66"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="101"/>
+      <c r="V15" s="94"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1734,7 +1798,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="66"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="102"/>
+      <c r="V16" s="95"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1917,7 +1981,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2194,7 +2258,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,7 +2354,7 @@
       </c>
       <c r="W34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2322,7 +2386,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2386,7 +2450,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,7 +2717,7 @@
       </c>
       <c r="W46" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2968,10 +3032,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="103" t="s">
+      <c r="V56" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="103">
+      <c r="W56" s="96">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3000,8 +3064,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="104"/>
-      <c r="W57" s="104"/>
+      <c r="V57" s="97"/>
+      <c r="W57" s="97"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3027,8 +3091,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
+      <c r="V58" s="98"/>
+      <c r="W58" s="98"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4315,6 +4379,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4325,16 +4399,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4345,8 +4409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4377,43 +4441,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="106"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="70"/>
@@ -4458,58 +4522,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="100" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4534,24 +4598,24 @@
       <c r="I5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="100"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4560,7 +4624,9 @@
       <c r="B6" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="82" t="s">
+        <v>92</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>46</v>
       </c>
@@ -4582,16 +4648,26 @@
         <v>69</v>
       </c>
       <c r="L6" s="55"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="52" t="s">
+        <v>100</v>
+      </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="O6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="100" t="s">
+      <c r="V6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4605,7 +4681,9 @@
       <c r="B7" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="82" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>46</v>
       </c>
@@ -4633,14 +4711,24 @@
         <v>81</v>
       </c>
       <c r="N7" s="54"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="3"/>
+      <c r="O7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="101"/>
+      <c r="V7" s="94"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4652,7 +4740,9 @@
       <c r="B8" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="82" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" s="50" t="s">
         <v>46</v>
       </c>
@@ -4680,14 +4770,24 @@
         <v>81</v>
       </c>
       <c r="N8" s="54"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="3"/>
+      <c r="O8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="101"/>
+      <c r="V8" s="94"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4699,7 +4799,9 @@
       <c r="B9" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="82" t="s">
+        <v>92</v>
+      </c>
       <c r="D9" s="50" t="s">
         <v>46</v>
       </c>
@@ -4727,14 +4829,24 @@
         <v>81</v>
       </c>
       <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="3"/>
+      <c r="O9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="101"/>
+      <c r="V9" s="94"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4746,7 +4858,9 @@
       <c r="B10" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="82" t="s">
+        <v>92</v>
+      </c>
       <c r="D10" s="50" t="s">
         <v>46</v>
       </c>
@@ -4772,14 +4886,24 @@
         <v>84</v>
       </c>
       <c r="N10" s="54"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="3"/>
+      <c r="O10" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="101"/>
+      <c r="V10" s="94"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4788,27 +4912,59 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="68"/>
+      <c r="B11" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="51">
+        <v>868926033993533</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>90</v>
+      </c>
       <c r="I11" s="73"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="J11" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="N11" s="54"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="3"/>
+      <c r="O11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="101"/>
+      <c r="V11" s="94"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4837,7 +4993,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="100" t="s">
+      <c r="V12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -4868,7 +5024,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="101"/>
+      <c r="V13" s="94"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4897,7 +5053,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="101"/>
+      <c r="V14" s="94"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4926,7 +5082,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="101"/>
+      <c r="V15" s="94"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4955,7 +5111,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="102"/>
+      <c r="V16" s="95"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5106,7 +5262,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5138,7 +5294,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5287,7 +5443,7 @@
       </c>
       <c r="W27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5415,7 +5571,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5543,7 +5699,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5607,7 +5763,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5725,7 +5881,7 @@
       </c>
       <c r="W41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5938,7 +6094,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6189,10 +6345,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="103" t="s">
+      <c r="V56" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="103">
+      <c r="W56" s="96">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6221,8 +6377,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="104"/>
-      <c r="W57" s="104"/>
+      <c r="V57" s="97"/>
+      <c r="W57" s="97"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6248,8 +6404,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
+      <c r="V58" s="98"/>
+      <c r="W58" s="98"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -6366,7 +6522,7 @@
       </c>
       <c r="W62" s="10">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7536,6 +7692,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7546,16 +7712,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7598,43 +7754,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="106"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -7679,58 +7835,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="100" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -7755,24 +7911,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="100"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -7798,7 +7954,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="100" t="s">
+      <c r="V6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -7829,7 +7985,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="101"/>
+      <c r="V7" s="94"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7858,7 +8014,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="101"/>
+      <c r="V8" s="94"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7887,7 +8043,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="101"/>
+      <c r="V9" s="94"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -7916,7 +8072,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="101"/>
+      <c r="V10" s="94"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7945,7 +8101,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="101"/>
+      <c r="V11" s="94"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7974,7 +8130,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="100" t="s">
+      <c r="V12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8005,7 +8161,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="101"/>
+      <c r="V13" s="94"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8034,7 +8190,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="101"/>
+      <c r="V14" s="94"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8063,7 +8219,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="101"/>
+      <c r="V15" s="94"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8092,7 +8248,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="102"/>
+      <c r="V16" s="95"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9326,10 +9482,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="103" t="s">
+      <c r="V56" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="103">
+      <c r="W56" s="96">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9358,8 +9514,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="104"/>
-      <c r="W57" s="104"/>
+      <c r="V57" s="97"/>
+      <c r="W57" s="97"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9385,8 +9541,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
+      <c r="V58" s="98"/>
+      <c r="W58" s="98"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10673,6 +10829,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10683,16 +10849,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_PLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_PLapdat.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -340,13 +340,52 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>03/12/2020</t>
+  </si>
+  <si>
+    <t>Lock 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Không chốt GSM do khay Sim</t>
+  </si>
+  <si>
+    <t>Thay Khay Sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Danh</t>
+  </si>
+  <si>
+    <t>PC + PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Sim hỏng</t>
+  </si>
+  <si>
+    <t>Lock 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>08/12/2020</t>
+  </si>
+  <si>
+    <t>10/12/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,12 +459,6 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF9C0006"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -582,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -758,16 +791,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,9 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -833,12 +857,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,6 +876,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,34 +923,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1219,7 +1237,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1250,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="81" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="78" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1250,46 +1268,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="70"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -1314,7 +1332,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="71"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1331,58 +1349,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="100"/>
-      <c r="M4" s="108" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="108" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="100" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="103" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="100" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="100" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1404,36 +1422,36 @@
       <c r="H5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="100"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="79" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -1448,8 +1466,8 @@
       <c r="G6" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="73" t="s">
+      <c r="H6" s="66"/>
+      <c r="I6" s="70" t="s">
         <v>78</v>
       </c>
       <c r="J6" s="52" t="s">
@@ -1477,8 +1495,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="93" t="s">
+      <c r="U6" s="64"/>
+      <c r="V6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1489,10 +1507,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="79" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="50" t="s">
@@ -1505,8 +1523,8 @@
       <c r="G7" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="73" t="s">
+      <c r="H7" s="66"/>
+      <c r="I7" s="70" t="s">
         <v>78</v>
       </c>
       <c r="J7" s="52" t="s">
@@ -1534,8 +1552,8 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="94"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1544,14 +1562,14 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="83"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="73"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="52"/>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
@@ -1563,8 +1581,8 @@
       <c r="R8" s="50"/>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="94"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="97"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1573,14 +1591,14 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="50"/>
       <c r="E9" s="51"/>
-      <c r="F9" s="68"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
-      <c r="I9" s="73"/>
+      <c r="I9" s="70"/>
       <c r="J9" s="52"/>
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
@@ -1591,9 +1609,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="50"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="94"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1602,16 +1620,16 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="50"/>
       <c r="E10" s="51"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="73"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="88"/>
+      <c r="K10" s="83"/>
       <c r="L10" s="55"/>
       <c r="M10" s="52"/>
       <c r="N10" s="54"/>
@@ -1620,9 +1638,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="50"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="94"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1631,14 +1649,14 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="50"/>
       <c r="E11" s="51"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
-      <c r="I11" s="73"/>
+      <c r="I11" s="70"/>
       <c r="J11" s="52"/>
       <c r="K11" s="55"/>
       <c r="L11" s="55"/>
@@ -1649,9 +1667,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="50"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="94"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1660,14 +1678,14 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="50"/>
       <c r="E12" s="51"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="73"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="55"/>
@@ -1678,9 +1696,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="50"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="93" t="s">
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1691,27 +1709,27 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
-      <c r="F13" s="68"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
-      <c r="I13" s="86"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="88"/>
+      <c r="K13" s="83"/>
       <c r="L13" s="55"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="90"/>
+      <c r="N13" s="85"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="94"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1720,27 +1738,27 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="50"/>
       <c r="E14" s="51"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="87"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="82"/>
       <c r="L14" s="55"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="94"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="97"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1749,14 +1767,14 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
-      <c r="F15" s="68"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="74"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="52"/>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
@@ -1767,9 +1785,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="66"/>
+      <c r="T15" s="64"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="94"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1778,14 +1796,14 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="83"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="75"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="55"/>
@@ -1796,9 +1814,9 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="50"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="66"/>
+      <c r="T16" s="64"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="95"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1807,41 +1825,41 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="50"/>
       <c r="E17" s="56"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="76"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="55"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="90"/>
+      <c r="N17" s="85"/>
       <c r="O17" s="52"/>
       <c r="P17" s="52"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="50"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="66"/>
+      <c r="T17" s="64"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="66"/>
+      <c r="V17" s="64"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="50"/>
       <c r="E18" s="51"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="75"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1852,7 +1870,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="10"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="66"/>
+      <c r="T18" s="64"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -1861,14 +1879,14 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="50"/>
       <c r="E19" s="56"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="75"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1879,7 +1897,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="10"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="66"/>
+      <c r="T19" s="64"/>
       <c r="U19" s="15"/>
       <c r="V19" s="57" t="s">
         <v>39</v>
@@ -1892,14 +1910,14 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="50"/>
       <c r="E20" s="51"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
-      <c r="I20" s="75"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1910,7 +1928,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="66"/>
+      <c r="T20" s="64"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -1924,14 +1942,14 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="50"/>
       <c r="E21" s="51"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="77"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="1"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1942,7 +1960,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="66"/>
+      <c r="T21" s="64"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -1956,14 +1974,14 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="50"/>
       <c r="E22" s="51"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="77"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="1"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -1974,7 +1992,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="66"/>
+      <c r="T22" s="64"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -1988,14 +2006,14 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="77"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2006,7 +2024,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="66"/>
+      <c r="T23" s="64"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -2015,14 +2033,14 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="50"/>
       <c r="E24" s="51"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="77"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2033,7 +2051,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="66"/>
+      <c r="T24" s="64"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -2042,14 +2060,14 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2060,7 +2078,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="10"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="66"/>
+      <c r="T25" s="64"/>
       <c r="U25" s="15"/>
       <c r="V25" s="57" t="s">
         <v>54</v>
@@ -2080,7 +2098,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="77"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2091,7 +2109,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="10"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="66"/>
+      <c r="T26" s="64"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -2112,7 +2130,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="77"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2123,7 +2141,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="10"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="66"/>
+      <c r="T27" s="64"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -2144,7 +2162,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="75"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2155,7 +2173,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="66"/>
+      <c r="T28" s="64"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -2176,7 +2194,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="75"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2187,7 +2205,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="66"/>
+      <c r="T29" s="64"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -2208,7 +2226,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="75"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2219,7 +2237,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="66"/>
+      <c r="T30" s="64"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -2240,7 +2258,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="75"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2251,7 +2269,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="66"/>
+      <c r="T31" s="64"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -2272,7 +2290,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="75"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2283,7 +2301,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="66"/>
+      <c r="T32" s="64"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -2304,7 +2322,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="75"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2315,7 +2333,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="66"/>
+      <c r="T33" s="64"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -2336,7 +2354,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="75"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2347,7 +2365,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="66"/>
+      <c r="T34" s="64"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -2368,7 +2386,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="75"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2379,7 +2397,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="66"/>
+      <c r="T35" s="64"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -2400,7 +2418,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="75"/>
+      <c r="I36" s="72"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2411,7 +2429,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="66"/>
+      <c r="T36" s="64"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -2432,7 +2450,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="75"/>
+      <c r="I37" s="72"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2443,7 +2461,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="66"/>
+      <c r="T37" s="64"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -2464,7 +2482,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="75"/>
+      <c r="I38" s="72"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2475,7 +2493,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="66"/>
+      <c r="T38" s="64"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -2491,7 +2509,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="75"/>
+      <c r="I39" s="72"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2502,7 +2520,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="66"/>
+      <c r="T39" s="64"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -2518,7 +2536,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="75"/>
+      <c r="I40" s="72"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2529,7 +2547,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="66"/>
+      <c r="T40" s="64"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -2550,7 +2568,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="75"/>
+      <c r="I41" s="72"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2561,7 +2579,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="66"/>
+      <c r="T41" s="64"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -2582,7 +2600,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="75"/>
+      <c r="I42" s="72"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2593,7 +2611,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="66"/>
+      <c r="T42" s="64"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -2609,7 +2627,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="75"/>
+      <c r="I43" s="72"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2620,7 +2638,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="66"/>
+      <c r="T43" s="64"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -2636,7 +2654,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="75"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2667,7 +2685,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="75"/>
+      <c r="I45" s="72"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2699,7 +2717,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="75"/>
+      <c r="I46" s="72"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2731,7 +2749,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="75"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2763,7 +2781,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="75"/>
+      <c r="I48" s="72"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2795,7 +2813,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="75"/>
+      <c r="I49" s="72"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2822,12 +2840,12 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="65"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="78"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -2836,7 +2854,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="65"/>
+      <c r="R50" s="63"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -2859,7 +2877,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="75"/>
+      <c r="I51" s="72"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2891,7 +2909,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="79"/>
+      <c r="I52" s="76"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -2923,7 +2941,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="79"/>
+      <c r="I53" s="76"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -2955,7 +2973,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="80"/>
+      <c r="I54" s="77"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -2987,7 +3005,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="79"/>
+      <c r="I55" s="76"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -3019,7 +3037,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="79"/>
+      <c r="I56" s="76"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -3032,10 +3050,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="96" t="s">
+      <c r="V56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="96">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3051,7 +3069,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="79"/>
+      <c r="I57" s="76"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -3064,8 +3082,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="97"/>
-      <c r="W57" s="97"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3078,7 +3096,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="79"/>
+      <c r="I58" s="76"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -3091,8 +3109,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="98"/>
-      <c r="W58" s="98"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -3105,7 +3123,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="79"/>
+      <c r="I59" s="76"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -3132,7 +3150,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="79"/>
+      <c r="I60" s="76"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -3159,7 +3177,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="79"/>
+      <c r="I61" s="76"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -3191,7 +3209,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="79"/>
+      <c r="I62" s="76"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -3223,7 +3241,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="79"/>
+      <c r="I63" s="76"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -3250,7 +3268,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="79"/>
+      <c r="I64" s="76"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -3277,7 +3295,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="79"/>
+      <c r="I65" s="76"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -3304,7 +3322,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="79"/>
+      <c r="I66" s="76"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -3331,7 +3349,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="79"/>
+      <c r="I67" s="76"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -3361,7 +3379,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="79"/>
+      <c r="I68" s="76"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -3388,7 +3406,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="79"/>
+      <c r="I69" s="76"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -3415,7 +3433,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="79"/>
+      <c r="I70" s="76"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -3442,7 +3460,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="79"/>
+      <c r="I71" s="76"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -3469,7 +3487,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="79"/>
+      <c r="I72" s="76"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -3496,7 +3514,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="79"/>
+      <c r="I73" s="76"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -3523,7 +3541,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="79"/>
+      <c r="I74" s="76"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -3550,7 +3568,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="79"/>
+      <c r="I75" s="76"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -3577,7 +3595,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="79"/>
+      <c r="I76" s="76"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -3604,7 +3622,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="79"/>
+      <c r="I77" s="76"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -3631,7 +3649,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="79"/>
+      <c r="I78" s="76"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -3658,7 +3676,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="79"/>
+      <c r="I79" s="76"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -3685,7 +3703,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="79"/>
+      <c r="I80" s="76"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -3712,7 +3730,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="79"/>
+      <c r="I81" s="76"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -3739,7 +3757,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="79"/>
+      <c r="I82" s="76"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -3766,7 +3784,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="79"/>
+      <c r="I83" s="76"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -3793,7 +3811,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="79"/>
+      <c r="I84" s="76"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -3820,7 +3838,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="79"/>
+      <c r="I85" s="76"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -3847,7 +3865,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="79"/>
+      <c r="I86" s="76"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -3874,7 +3892,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="79"/>
+      <c r="I87" s="76"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -3901,7 +3919,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="79"/>
+      <c r="I88" s="76"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -3928,7 +3946,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="79"/>
+      <c r="I89" s="76"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -3955,7 +3973,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="79"/>
+      <c r="I90" s="76"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -3982,7 +4000,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="79"/>
+      <c r="I91" s="76"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -4009,7 +4027,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="79"/>
+      <c r="I92" s="76"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -4036,7 +4054,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="79"/>
+      <c r="I93" s="76"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -4063,7 +4081,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="79"/>
+      <c r="I94" s="76"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -4090,7 +4108,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="79"/>
+      <c r="I95" s="76"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -4117,7 +4135,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="79"/>
+      <c r="I96" s="76"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -4144,7 +4162,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="79"/>
+      <c r="I97" s="76"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -4171,7 +4189,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="79"/>
+      <c r="I98" s="76"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -4198,7 +4216,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="79"/>
+      <c r="I99" s="76"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -4225,7 +4243,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="79"/>
+      <c r="I100" s="76"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -4252,7 +4270,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="79"/>
+      <c r="I101" s="76"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -4279,7 +4297,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="79"/>
+      <c r="I102" s="76"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -4306,7 +4324,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="79"/>
+      <c r="I103" s="76"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -4333,7 +4351,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="79"/>
+      <c r="I104" s="76"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -4360,7 +4378,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="79"/>
+      <c r="I105" s="76"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -4379,6 +4397,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4389,16 +4417,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4410,7 +4428,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4423,7 +4441,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="81" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="78" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -4441,46 +4459,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="70"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -4505,7 +4523,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="71"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -4522,58 +4540,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="100"/>
-      <c r="M4" s="108" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="108" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="100" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="103" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="100" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="100" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4595,36 +4613,36 @@
       <c r="H5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="100"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="79" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -4637,8 +4655,8 @@
       <c r="G6" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="73" t="s">
+      <c r="H6" s="66"/>
+      <c r="I6" s="70" t="s">
         <v>75</v>
       </c>
       <c r="J6" s="52" t="s">
@@ -4666,8 +4684,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="93" t="s">
+      <c r="U6" s="61"/>
+      <c r="V6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4678,10 +4696,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="79" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="50" t="s">
@@ -4695,7 +4713,7 @@
         <v>67</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="70" t="s">
         <v>76</v>
       </c>
       <c r="J7" s="52" t="s">
@@ -4727,8 +4745,8 @@
         <v>99</v>
       </c>
       <c r="T7" s="27"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="94"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4737,10 +4755,10 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="79" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="50" t="s">
@@ -4754,7 +4772,7 @@
         <v>67</v>
       </c>
       <c r="H8" s="50"/>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="70" t="s">
         <v>78</v>
       </c>
       <c r="J8" s="52" t="s">
@@ -4786,8 +4804,8 @@
         <v>99</v>
       </c>
       <c r="T8" s="27"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="94"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="97"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4796,10 +4814,10 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="79" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="50" t="s">
@@ -4808,12 +4826,12 @@
       <c r="E9" s="51">
         <v>868926033934461</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="50" t="s">
         <v>67</v>
       </c>
       <c r="H9" s="50"/>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="70" t="s">
         <v>78</v>
       </c>
       <c r="J9" s="52" t="s">
@@ -4844,9 +4862,9 @@
       <c r="S9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="94"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4855,10 +4873,10 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="79" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="50" t="s">
@@ -4871,8 +4889,8 @@
       <c r="G10" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="73" t="s">
+      <c r="H10" s="66"/>
+      <c r="I10" s="70" t="s">
         <v>82</v>
       </c>
       <c r="J10" s="52" t="s">
@@ -4901,9 +4919,9 @@
       <c r="S10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="94"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4912,10 +4930,10 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="79" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -4933,7 +4951,7 @@
       <c r="H11" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="73"/>
+      <c r="I11" s="70"/>
       <c r="J11" s="52" t="s">
         <v>71</v>
       </c>
@@ -4962,9 +4980,9 @@
       <c r="S11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="94"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4973,27 +4991,57 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="51">
+        <v>868926033943041</v>
+      </c>
       <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="G12" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>105</v>
+      </c>
       <c r="N12" s="54"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="93" t="s">
+      <c r="O12" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5004,27 +5052,61 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="94"/>
+      <c r="B13" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="51">
+        <v>868345035622026</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5033,27 +5115,61 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="94"/>
+      <c r="B14" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="51">
+        <v>868926033950558</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="97"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5062,27 +5178,61 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="63"/>
+      <c r="B15" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="51">
+        <v>864811037178451</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T15" s="61"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="94"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5091,27 +5241,57 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="51">
+        <v>864811037229635</v>
+      </c>
       <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="63"/>
+      <c r="G16" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="54"/>
+      <c r="O16" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T16" s="61"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="95"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5120,52 +5300,112 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="B17" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="51">
+        <v>868926033921005</v>
+      </c>
       <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H17" s="50"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="63"/>
+      <c r="I17" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="54"/>
+      <c r="O17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T17" s="61"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="63"/>
+      <c r="V17" s="61"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="B18" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="56">
+        <v>864811037237554</v>
+      </c>
       <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H18" s="50"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="63"/>
+      <c r="I18" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="61"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -5174,25 +5414,59 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="B19" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="51">
+        <v>868926033973139</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>105</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="63"/>
+      <c r="O19" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T19" s="61"/>
       <c r="U19" s="15"/>
       <c r="V19" s="57" t="s">
         <v>39</v>
@@ -5205,25 +5479,59 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="51">
+        <v>869627031751175</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>105</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="63"/>
+      <c r="O20" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T20" s="61"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -5237,25 +5545,55 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="B21" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="56">
+        <v>868926033916856</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>105</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="63"/>
+      <c r="O21" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" s="61"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -5276,7 +5614,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="77"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -5287,7 +5625,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="63"/>
+      <c r="T22" s="61"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -5308,7 +5646,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="77"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -5319,7 +5657,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="63"/>
+      <c r="T23" s="61"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -5335,7 +5673,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="77"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -5346,7 +5684,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="63"/>
+      <c r="T24" s="61"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -5362,7 +5700,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -5373,7 +5711,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="10"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="63"/>
+      <c r="T25" s="61"/>
       <c r="U25" s="15"/>
       <c r="V25" s="57" t="s">
         <v>54</v>
@@ -5393,7 +5731,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="77"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -5404,7 +5742,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="10"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="63"/>
+      <c r="T26" s="61"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -5425,7 +5763,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="77"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -5436,7 +5774,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="10"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="63"/>
+      <c r="T27" s="61"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -5457,7 +5795,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="75"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5468,7 +5806,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="63"/>
+      <c r="T28" s="61"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -5489,7 +5827,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="75"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5500,7 +5838,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="63"/>
+      <c r="T29" s="61"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -5521,7 +5859,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="75"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5532,7 +5870,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="63"/>
+      <c r="T30" s="61"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -5553,7 +5891,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="75"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5564,14 +5902,14 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="63"/>
+      <c r="T31" s="61"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5585,7 +5923,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="75"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5596,7 +5934,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="63"/>
+      <c r="T32" s="61"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -5617,7 +5955,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="75"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5628,7 +5966,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="63"/>
+      <c r="T33" s="61"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -5649,7 +5987,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="75"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5660,7 +5998,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="63"/>
+      <c r="T34" s="61"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -5681,7 +6019,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="75"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5692,14 +6030,14 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="63"/>
+      <c r="T35" s="61"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5713,7 +6051,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="75"/>
+      <c r="I36" s="72"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5724,7 +6062,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="63"/>
+      <c r="T36" s="61"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -5745,7 +6083,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="75"/>
+      <c r="I37" s="72"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5756,14 +6094,14 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="63"/>
+      <c r="T37" s="61"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5777,7 +6115,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="75"/>
+      <c r="I38" s="72"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5788,7 +6126,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="63"/>
+      <c r="T38" s="61"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -5804,7 +6142,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="75"/>
+      <c r="I39" s="72"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -5815,7 +6153,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="63"/>
+      <c r="T39" s="61"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -5831,7 +6169,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="75"/>
+      <c r="I40" s="72"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -5842,7 +6180,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="63"/>
+      <c r="T40" s="61"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -5863,7 +6201,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="75"/>
+      <c r="I41" s="72"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -5874,7 +6212,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="63"/>
+      <c r="T41" s="61"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -5895,7 +6233,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="75"/>
+      <c r="I42" s="72"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5906,7 +6244,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="63"/>
+      <c r="T42" s="61"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -5922,7 +6260,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="75"/>
+      <c r="I43" s="72"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -5933,7 +6271,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="63"/>
+      <c r="T43" s="61"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -5949,7 +6287,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="75"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -5980,7 +6318,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="75"/>
+      <c r="I45" s="72"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6012,7 +6350,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="75"/>
+      <c r="I46" s="72"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6044,7 +6382,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="75"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6076,7 +6414,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="75"/>
+      <c r="I48" s="72"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -6094,7 +6432,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6108,7 +6446,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="75"/>
+      <c r="I49" s="72"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6135,12 +6473,12 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="64"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="78"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -6149,7 +6487,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="64"/>
+      <c r="R50" s="62"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -6172,7 +6510,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="75"/>
+      <c r="I51" s="72"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6204,7 +6542,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="79"/>
+      <c r="I52" s="76"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -6236,7 +6574,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="79"/>
+      <c r="I53" s="76"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -6268,7 +6606,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="80"/>
+      <c r="I54" s="77"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -6300,7 +6638,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="79"/>
+      <c r="I55" s="76"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -6332,7 +6670,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="79"/>
+      <c r="I56" s="76"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -6345,10 +6683,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="96" t="s">
+      <c r="V56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="96">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6364,7 +6702,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="79"/>
+      <c r="I57" s="76"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -6377,8 +6715,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="97"/>
-      <c r="W57" s="97"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6391,7 +6729,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="79"/>
+      <c r="I58" s="76"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -6404,8 +6742,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="98"/>
-      <c r="W58" s="98"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -6418,7 +6756,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="79"/>
+      <c r="I59" s="76"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -6445,7 +6783,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="79"/>
+      <c r="I60" s="76"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -6472,7 +6810,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="79"/>
+      <c r="I61" s="76"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -6504,7 +6842,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="79"/>
+      <c r="I62" s="76"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -6536,7 +6874,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="79"/>
+      <c r="I63" s="76"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -6563,7 +6901,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="79"/>
+      <c r="I64" s="76"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -6590,7 +6928,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="79"/>
+      <c r="I65" s="76"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -6617,7 +6955,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="79"/>
+      <c r="I66" s="76"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -6644,7 +6982,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="79"/>
+      <c r="I67" s="76"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -6674,7 +7012,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="79"/>
+      <c r="I68" s="76"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -6701,7 +7039,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="79"/>
+      <c r="I69" s="76"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -6728,7 +7066,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="79"/>
+      <c r="I70" s="76"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -6755,7 +7093,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="79"/>
+      <c r="I71" s="76"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -6782,7 +7120,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="79"/>
+      <c r="I72" s="76"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -6809,7 +7147,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="79"/>
+      <c r="I73" s="76"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -6836,7 +7174,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="79"/>
+      <c r="I74" s="76"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -6863,7 +7201,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="79"/>
+      <c r="I75" s="76"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -6890,7 +7228,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="79"/>
+      <c r="I76" s="76"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -6917,7 +7255,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="79"/>
+      <c r="I77" s="76"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -6944,7 +7282,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="79"/>
+      <c r="I78" s="76"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -6971,7 +7309,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="79"/>
+      <c r="I79" s="76"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -6998,7 +7336,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="79"/>
+      <c r="I80" s="76"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -7025,7 +7363,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="79"/>
+      <c r="I81" s="76"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -7052,7 +7390,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="79"/>
+      <c r="I82" s="76"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -7079,7 +7417,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="79"/>
+      <c r="I83" s="76"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -7106,7 +7444,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="79"/>
+      <c r="I84" s="76"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -7133,7 +7471,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="79"/>
+      <c r="I85" s="76"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -7160,7 +7498,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="79"/>
+      <c r="I86" s="76"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -7187,7 +7525,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="79"/>
+      <c r="I87" s="76"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -7214,7 +7552,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="79"/>
+      <c r="I88" s="76"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -7241,7 +7579,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="79"/>
+      <c r="I89" s="76"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -7268,7 +7606,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="79"/>
+      <c r="I90" s="76"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -7295,7 +7633,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="79"/>
+      <c r="I91" s="76"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -7322,7 +7660,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="79"/>
+      <c r="I92" s="76"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -7349,7 +7687,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="79"/>
+      <c r="I93" s="76"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -7376,7 +7714,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="79"/>
+      <c r="I94" s="76"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -7403,7 +7741,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="79"/>
+      <c r="I95" s="76"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -7430,7 +7768,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="79"/>
+      <c r="I96" s="76"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -7457,7 +7795,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="79"/>
+      <c r="I97" s="76"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -7484,7 +7822,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="79"/>
+      <c r="I98" s="76"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -7511,7 +7849,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="79"/>
+      <c r="I99" s="76"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -7538,7 +7876,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="79"/>
+      <c r="I100" s="76"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -7565,7 +7903,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="79"/>
+      <c r="I101" s="76"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -7592,7 +7930,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="79"/>
+      <c r="I102" s="76"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -7619,7 +7957,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="79"/>
+      <c r="I103" s="76"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -7646,7 +7984,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="79"/>
+      <c r="I104" s="76"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -7673,7 +8011,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="79"/>
+      <c r="I105" s="76"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -7692,6 +8030,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7702,16 +8050,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7754,43 +8092,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -7835,58 +8173,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="100"/>
-      <c r="M4" s="108" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="108" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="100" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="103" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="100" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="100" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -7911,24 +8249,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="100"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -7954,7 +8292,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="93" t="s">
+      <c r="V6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -7985,7 +8323,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="94"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8014,7 +8352,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="94"/>
+      <c r="V8" s="97"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8043,7 +8381,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="94"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8072,7 +8410,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="94"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8101,7 +8439,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="94"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8130,7 +8468,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="93" t="s">
+      <c r="V12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8148,7 +8486,7 @@
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="58"/>
-      <c r="I13" s="73"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="52"/>
       <c r="K13" s="55"/>
       <c r="L13" s="52"/>
@@ -8161,7 +8499,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="94"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8177,7 +8515,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
-      <c r="I14" s="73"/>
+      <c r="I14" s="70"/>
       <c r="J14" s="52"/>
       <c r="K14" s="1"/>
       <c r="L14" s="52"/>
@@ -8190,7 +8528,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="94"/>
+      <c r="V14" s="97"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8206,7 +8544,7 @@
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
-      <c r="I15" s="73"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="52"/>
       <c r="K15" s="55"/>
       <c r="L15" s="52"/>
@@ -8219,7 +8557,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="94"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8235,7 +8573,7 @@
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="73"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="52"/>
       <c r="K16" s="1"/>
       <c r="L16" s="52"/>
@@ -8248,7 +8586,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="95"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8264,7 +8602,7 @@
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="73"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="52"/>
       <c r="K17" s="55"/>
       <c r="L17" s="52"/>
@@ -8291,7 +8629,7 @@
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
       <c r="H18" s="50"/>
-      <c r="I18" s="73"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="52"/>
       <c r="K18" s="55"/>
       <c r="L18" s="52"/>
@@ -8314,11 +8652,11 @@
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="67"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="73"/>
+      <c r="I19" s="70"/>
       <c r="J19" s="52"/>
       <c r="K19" s="1"/>
       <c r="L19" s="52"/>
@@ -8349,7 +8687,7 @@
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
-      <c r="I20" s="73"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="52"/>
       <c r="K20" s="53"/>
       <c r="L20" s="1"/>
@@ -8381,7 +8719,7 @@
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="74"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="1"/>
       <c r="K21" s="52"/>
       <c r="L21" s="1"/>
@@ -8413,7 +8751,7 @@
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
       <c r="H22" s="50"/>
-      <c r="I22" s="74"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -8445,7 +8783,7 @@
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="73"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -8472,7 +8810,7 @@
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="73"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -8492,7 +8830,7 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="49"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
@@ -8523,14 +8861,14 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="49"/>
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="61"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="52"/>
       <c r="K26" s="1"/>
       <c r="L26" s="52"/>
@@ -8559,7 +8897,7 @@
       <c r="C27" s="49"/>
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="68"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
       <c r="I27" s="52"/>
@@ -8594,7 +8932,7 @@
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="50"/>
-      <c r="I28" s="73"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -9482,10 +9820,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="96" t="s">
+      <c r="V56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="96">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9514,8 +9852,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="97"/>
-      <c r="W57" s="97"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9541,8 +9879,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="98"/>
-      <c r="W58" s="98"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10829,6 +11167,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10839,16 +11187,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
